--- a/Driver.xlsx
+++ b/Driver.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="825" windowWidth="14355" windowHeight="4155" tabRatio="865" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="360" yWindow="825" windowWidth="14355" windowHeight="4155" tabRatio="865" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Automation Framework Config" sheetId="1" r:id="rId1"/>
@@ -124,9 +124,6 @@
     <t>AccountManager</t>
   </si>
   <si>
-    <t>https://qa-gateway-lb-1580561850.us-west-1.elb.amazonaws.com/login</t>
-  </si>
-  <si>
     <t>AccountManager - Add User</t>
   </si>
   <si>
@@ -455,6 +452,9 @@
   </si>
   <si>
     <t>https://portal-nv.edgepay-uat.com/login</t>
+  </si>
+  <si>
+    <t>https://portal.edgepayment.me/login</t>
   </si>
 </sst>
 </file>
@@ -959,10 +959,10 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1081,10 +1081,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>6</v>
@@ -1098,10 +1098,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>6</v>
@@ -1115,10 +1115,10 @@
     </row>
     <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>6</v>
@@ -1132,10 +1132,10 @@
     </row>
     <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>6</v>
@@ -1149,10 +1149,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>6</v>
@@ -1166,10 +1166,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>6</v>
@@ -1183,10 +1183,10 @@
     </row>
     <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>6</v>
@@ -1212,8 +1212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1273,23 +1273,23 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>33</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J17" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -1361,7 +1361,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>6</v>
@@ -1383,7 +1383,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>5</v>
@@ -1394,7 +1394,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>5</v>
@@ -1405,7 +1405,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>5</v>
@@ -1508,10 +1508,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>6</v>
@@ -1525,10 +1525,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>6</v>
@@ -1542,10 +1542,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>6</v>
@@ -1559,10 +1559,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>6</v>
@@ -1576,10 +1576,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>6</v>
@@ -1593,10 +1593,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>6</v>
@@ -1610,10 +1610,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>6</v>
@@ -1627,10 +1627,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>6</v>
@@ -1644,10 +1644,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>6</v>
@@ -1706,10 +1706,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>6</v>
@@ -1723,10 +1723,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>6</v>
@@ -1740,10 +1740,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>6</v>
@@ -1757,10 +1757,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>6</v>
@@ -1774,10 +1774,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>6</v>
@@ -1791,10 +1791,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>6</v>
@@ -1808,10 +1808,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>6</v>
@@ -1870,10 +1870,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>6</v>
@@ -1887,10 +1887,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>6</v>
@@ -1904,10 +1904,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>6</v>
@@ -1921,10 +1921,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>6</v>
@@ -1938,10 +1938,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>6</v>
@@ -1955,10 +1955,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>6</v>
@@ -1972,10 +1972,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>6</v>
@@ -1989,10 +1989,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>6</v>
@@ -2006,10 +2006,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>6</v>
@@ -2023,10 +2023,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>6</v>
@@ -2040,10 +2040,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>6</v>
@@ -2057,10 +2057,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>6</v>
@@ -2074,10 +2074,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>6</v>
@@ -2091,10 +2091,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>6</v>
@@ -2108,10 +2108,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>6</v>
@@ -2170,10 +2170,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>6</v>
@@ -2187,10 +2187,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>6</v>
@@ -2204,10 +2204,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>6</v>
@@ -2221,10 +2221,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>6</v>
@@ -2238,10 +2238,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>6</v>
@@ -2255,10 +2255,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>6</v>
@@ -2272,10 +2272,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>6</v>
@@ -2289,10 +2289,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>6</v>
@@ -2306,10 +2306,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>6</v>
@@ -2323,10 +2323,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>6</v>
@@ -2340,10 +2340,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>6</v>
@@ -2370,7 +2370,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -2402,10 +2402,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>6</v>
@@ -2419,10 +2419,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>6</v>
@@ -2436,10 +2436,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>6</v>
@@ -2453,10 +2453,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>6</v>
@@ -2470,10 +2470,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>6</v>
@@ -2487,10 +2487,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>6</v>
@@ -2504,10 +2504,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>6</v>
@@ -2521,10 +2521,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>6</v>
@@ -2583,10 +2583,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>6</v>
@@ -2600,10 +2600,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>6</v>
@@ -2617,10 +2617,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>6</v>
@@ -2634,10 +2634,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>6</v>
@@ -2651,10 +2651,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>6</v>

--- a/Driver.xlsx
+++ b/Driver.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="825" windowWidth="14355" windowHeight="4155" tabRatio="865" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="825" windowWidth="14355" windowHeight="4155" tabRatio="865" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Automation Framework Config" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="146">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -455,6 +455,12 @@
   </si>
   <si>
     <t>https://portal.edgepayment.me/login</t>
+  </si>
+  <si>
+    <t>CHROMEHEADLESS</t>
+  </si>
+  <si>
+    <t>HTMLUNIT</t>
   </si>
 </sst>
 </file>
@@ -526,7 +532,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -575,12 +581,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -605,6 +622,12 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1047,10 +1070,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1062,7 +1085,7 @@
     <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1078,8 +1101,14 @@
       <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>78</v>
       </c>
@@ -1095,8 +1124,14 @@
       <c r="E2" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>79</v>
       </c>
@@ -1112,8 +1147,14 @@
       <c r="E3" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F3" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>80</v>
       </c>
@@ -1129,8 +1170,14 @@
       <c r="E4" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F4" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>81</v>
       </c>
@@ -1146,8 +1193,14 @@
       <c r="E5" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>77</v>
       </c>
@@ -1163,8 +1216,14 @@
       <c r="E6" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>82</v>
       </c>
@@ -1180,8 +1239,14 @@
       <c r="E7" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F7" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>83</v>
       </c>
@@ -1212,7 +1277,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -1312,7 +1377,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -1474,10 +1539,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1487,9 +1552,10 @@
     <col min="3" max="3" width="5.28515625" customWidth="1"/>
     <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1505,8 +1571,14 @@
       <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>89</v>
       </c>
@@ -1522,8 +1594,14 @@
       <c r="E2" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>91</v>
       </c>
@@ -1539,8 +1617,14 @@
       <c r="E3" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>33</v>
       </c>
@@ -1556,8 +1640,14 @@
       <c r="E4" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>35</v>
       </c>
@@ -1573,8 +1663,14 @@
       <c r="E5" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>34</v>
       </c>
@@ -1590,8 +1686,14 @@
       <c r="E6" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>36</v>
       </c>
@@ -1607,8 +1709,14 @@
       <c r="E7" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>37</v>
       </c>
@@ -1624,8 +1732,14 @@
       <c r="E8" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>38</v>
       </c>
@@ -1641,8 +1755,14 @@
       <c r="E9" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>90</v>
       </c>
@@ -1657,6 +1777,12 @@
       </c>
       <c r="E10" s="6" t="s">
         <v>5</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1672,10 +1798,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B7"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1687,7 +1813,7 @@
     <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1703,8 +1829,14 @@
       <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>89</v>
       </c>
@@ -1720,8 +1852,14 @@
       <c r="E2" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>91</v>
       </c>
@@ -1737,8 +1875,14 @@
       <c r="E3" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>41</v>
       </c>
@@ -1754,8 +1898,14 @@
       <c r="E4" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>40</v>
       </c>
@@ -1771,8 +1921,14 @@
       <c r="E5" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>39</v>
       </c>
@@ -1788,8 +1944,14 @@
       <c r="E6" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>42</v>
       </c>
@@ -1805,8 +1967,14 @@
       <c r="E7" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>90</v>
       </c>
@@ -1822,6 +1990,18 @@
       <c r="E8" s="6" t="s">
         <v>5</v>
       </c>
+      <c r="F8" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F9" s="13"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F10" s="13"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -1836,10 +2016,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B16"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1849,9 +2029,10 @@
     <col min="3" max="3" width="5.28515625" customWidth="1"/>
     <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1867,8 +2048,14 @@
       <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>56</v>
       </c>
@@ -1884,8 +2071,14 @@
       <c r="E2" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>57</v>
       </c>
@@ -1901,8 +2094,14 @@
       <c r="E3" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>58</v>
       </c>
@@ -1918,8 +2117,14 @@
       <c r="E4" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>59</v>
       </c>
@@ -1935,8 +2140,14 @@
       <c r="E5" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>60</v>
       </c>
@@ -1952,8 +2163,14 @@
       <c r="E6" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>61</v>
       </c>
@@ -1969,8 +2186,14 @@
       <c r="E7" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>62</v>
       </c>
@@ -1986,8 +2209,14 @@
       <c r="E8" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>63</v>
       </c>
@@ -2003,8 +2232,14 @@
       <c r="E9" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>84</v>
       </c>
@@ -2020,8 +2255,14 @@
       <c r="E10" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>85</v>
       </c>
@@ -2037,8 +2278,14 @@
       <c r="E11" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>86</v>
       </c>
@@ -2054,8 +2301,14 @@
       <c r="E12" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>64</v>
       </c>
@@ -2071,8 +2324,14 @@
       <c r="E13" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>65</v>
       </c>
@@ -2088,8 +2347,14 @@
       <c r="E14" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>66</v>
       </c>
@@ -2105,8 +2370,14 @@
       <c r="E15" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>67</v>
       </c>
@@ -2121,6 +2392,12 @@
       </c>
       <c r="E16" s="6" t="s">
         <v>5</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2136,10 +2413,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B11"/>
+      <selection activeCell="F2" sqref="F2:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2151,7 +2428,7 @@
     <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2167,8 +2444,14 @@
       <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>89</v>
       </c>
@@ -2184,8 +2467,14 @@
       <c r="E2" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>91</v>
       </c>
@@ -2201,8 +2490,14 @@
       <c r="E3" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>68</v>
       </c>
@@ -2218,8 +2513,14 @@
       <c r="E4" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>69</v>
       </c>
@@ -2235,8 +2536,14 @@
       <c r="E5" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>70</v>
       </c>
@@ -2252,8 +2559,14 @@
       <c r="E6" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>71</v>
       </c>
@@ -2269,8 +2582,14 @@
       <c r="E7" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>72</v>
       </c>
@@ -2286,8 +2605,14 @@
       <c r="E8" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>73</v>
       </c>
@@ -2303,8 +2628,14 @@
       <c r="E9" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>74</v>
       </c>
@@ -2320,8 +2651,14 @@
       <c r="E10" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>75</v>
       </c>
@@ -2337,8 +2674,14 @@
       <c r="E11" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>90</v>
       </c>
@@ -2353,6 +2696,12 @@
       </c>
       <c r="E12" s="6" t="s">
         <v>5</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2368,10 +2717,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2383,7 +2732,7 @@
     <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2399,8 +2748,14 @@
       <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>89</v>
       </c>
@@ -2416,8 +2771,14 @@
       <c r="E2" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>91</v>
       </c>
@@ -2433,8 +2794,14 @@
       <c r="E3" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>44</v>
       </c>
@@ -2450,8 +2817,14 @@
       <c r="E4" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>47</v>
       </c>
@@ -2467,8 +2840,14 @@
       <c r="E5" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>48</v>
       </c>
@@ -2484,8 +2863,14 @@
       <c r="E6" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>45</v>
       </c>
@@ -2501,8 +2886,14 @@
       <c r="E7" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>46</v>
       </c>
@@ -2518,8 +2909,14 @@
       <c r="E8" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>90</v>
       </c>
@@ -2534,6 +2931,12 @@
       </c>
       <c r="E9" s="6" t="s">
         <v>5</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2549,10 +2952,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="F2" sqref="F2:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2564,7 +2967,7 @@
     <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2580,8 +2983,14 @@
       <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>89</v>
       </c>
@@ -2597,8 +3006,14 @@
       <c r="E2" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>91</v>
       </c>
@@ -2614,8 +3029,14 @@
       <c r="E3" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>51</v>
       </c>
@@ -2631,8 +3052,14 @@
       <c r="E4" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>52</v>
       </c>
@@ -2648,8 +3075,14 @@
       <c r="E5" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>90</v>
       </c>
@@ -2664,6 +3097,12 @@
       </c>
       <c r="E6" s="6" t="s">
         <v>5</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
